--- a/每日项目页数登记表.xlsx
+++ b/每日项目页数登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>日時</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
       <t>鹏组</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191119（火）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191120（水）</t>
@@ -588,7 +584,7 @@
   <dimension ref="A2:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -611,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -650,24 +646,18 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C5" s="13">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8">
         <f>SUM(C5:G5)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -678,20 +668,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13">
         <v>10</v>
       </c>
-      <c r="C6" s="13">
-        <v>2</v>
-      </c>
       <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="11">
+        <v>5</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="8">
         <f>SUM(C6:G6)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -699,43 +691,34 @@
         <v>10</v>
       </c>
       <c r="B7" s="1">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="8">
         <f>SUM(C7:G7)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>12</v>
-      </c>
-      <c r="C8" s="13">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="8">
-        <f>SUM(C8:G8)</f>
-        <v>12</v>
-      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
     </row>
@@ -754,16 +737,23 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="1">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1">
+        <v>16</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8">
+        <f>SUM(C10:G10)</f>
+        <v>16</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -772,18 +762,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1">
-        <v>16</v>
-      </c>
-      <c r="E11" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E11" s="11">
+        <v>45</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
-        <f>SUM(C11:G11)</f>
-        <v>16</v>
+        <f>SUM(D11:G11)</f>
+        <v>51</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -792,20 +784,13 @@
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1">
-        <v>45</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11">
-        <v>45</v>
-      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8">
-        <f>SUM(D12:G12)</f>
-        <v>45</v>
-      </c>
+      <c r="H12" s="8"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -827,33 +812,33 @@
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>20</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="11">
+        <v>20</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="8"/>
+      <c r="H14" s="8">
+        <f>SUM(C14:G14)</f>
+        <v>20</v>
+      </c>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="11">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="8">
-        <f>SUM(C15:G15)</f>
-        <v>20</v>
-      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
@@ -870,67 +855,57 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+    <row r="17" spans="9:10">
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="9:10">
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="9:10">
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="9:10">
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="9:10">
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="9:10">
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="9:10">
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="9:10">
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="9:10">
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="9:10">
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="9:10">
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="9:10">
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="9:10">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="9:10">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="9:10">
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="9:10">
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="9:10">

--- a/每日项目页数登记表.xlsx
+++ b/每日项目页数登记表.xlsx
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20191120（水）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20191121（木）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   <si>
     <t>20191201（日）</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>616‬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
   <dimension ref="A2:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -606,8 +606,8 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
-        <v>146</v>
+      <c r="B2" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -646,18 +646,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C5" s="13">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="11"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8">
         <f>SUM(C5:G5)</f>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -668,44 +672,33 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="13">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="11">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="8">
         <f>SUM(C6:G6)</f>
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="8">
-        <f>SUM(C7:G7)</f>
-        <v>14</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12">
@@ -723,16 +716,27 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="1">
+        <v>19</v>
+      </c>
+      <c r="C9" s="13">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>16</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8">
+        <f>SUM(C9:G9)</f>
+        <v>19</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -741,18 +745,22 @@
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
       <c r="D10" s="1">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="11">
+        <v>45</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="8">
-        <f>SUM(C10:G10)</f>
-        <v>16</v>
+        <f>SUM(D10:G10)</f>
+        <v>51</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -762,20 +770,22 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>51</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3</v>
+      </c>
       <c r="D11" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="11">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
-        <f>SUM(D11:G11)</f>
-        <v>51</v>
+        <f>SUM(C11:G11)</f>
+        <v>118</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -798,34 +808,34 @@
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1">
+        <v>20</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="11">
+        <v>20</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8">
+        <f>SUM(C13:G13)</f>
+        <v>20</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1">
-        <v>20</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="11">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="8">
-        <f>SUM(C14:G14)</f>
-        <v>20</v>
-      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12">
@@ -842,16 +852,6 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>

--- a/每日项目页数登记表.xlsx
+++ b/每日项目页数登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>日時</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,26 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20191121（木）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191122（金）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191123（土）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191124（日）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191125（月）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20191126（火）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -120,8 +100,72 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>616‬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>20191202（月）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191203（火）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191204（水）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191205（木）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191206（金）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191207（土）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191208（日）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191209（月）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191210（火）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191211（水）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191212（木）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191213（金）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191214（土）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191215（日）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191216（月）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191217（火）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191218（水）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -235,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -285,6 +329,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +631,7 @@
   <dimension ref="A2:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -598,7 +645,7 @@
     <col min="7" max="7" width="8.125" style="5" customWidth="1"/>
     <col min="8" max="8" width="7.25" style="9" customWidth="1"/>
     <col min="10" max="10" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.25" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="13" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -606,8 +653,8 @@
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
+      <c r="B2" s="17">
+        <v>1328</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -646,22 +693,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C5" s="13">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E5" s="11">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8">
-        <f>SUM(C5:G5)</f>
-        <v>19</v>
+        <f>SUM(D5:G5)</f>
+        <v>59</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -672,96 +719,88 @@
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="C6" s="13">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="11">
+        <v>151</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="8">
         <f>SUM(C6:G6)</f>
-        <v>15</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8">
+        <f>SUM(C7:G7)</f>
+        <v>11</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="16"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="8">
+        <f>SUM(C8:G8)</f>
+        <v>0</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>16</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="8">
-        <f>SUM(C9:G9)</f>
-        <v>19</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>51</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11">
-        <v>45</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="8">
-        <f>SUM(D10:G10)</f>
-        <v>51</v>
-      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -770,22 +809,20 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>118</v>
-      </c>
-      <c r="C11" s="13">
+        <v>108</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="1">
         <v>3</v>
       </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
       <c r="E11" s="11">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
         <f>SUM(C11:G11)</f>
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -795,9 +832,9 @@
         <v>15</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="8"/>
@@ -808,104 +845,224 @@
       <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="11">
-        <v>20</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="8">
-        <f>SUM(C13:G13)</f>
-        <v>20</v>
-      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
+      <c r="A16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="9:10">
+    <row r="17" spans="1:10">
+      <c r="A17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="9:10">
+    <row r="18" spans="1:10">
+      <c r="A18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="9:10">
+    <row r="19" spans="1:10">
+      <c r="A19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="9:10">
+    <row r="20" spans="1:10">
+      <c r="A20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="9:10">
+    <row r="21" spans="1:10">
+      <c r="A21" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="9:10">
+    <row r="22" spans="1:10">
+      <c r="A22" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="9:10">
+    <row r="23" spans="1:10">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="9:10">
+    <row r="24" spans="1:10">
+      <c r="A24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="9:10">
+    <row r="25" spans="1:10">
+      <c r="A25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="8"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="9:10">
+    <row r="26" spans="1:10">
+      <c r="A26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="8"/>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="9:10">
+    <row r="27" spans="1:10">
+      <c r="A27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1">
+        <v>973</v>
+      </c>
+      <c r="C27" s="13">
+        <v>973</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="8">
+        <f>SUM(C27:G27)</f>
+        <v>973</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
-    <row r="28" spans="9:10">
+    <row r="28" spans="1:10">
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="9:10">
+    <row r="29" spans="1:10">
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="9:10">
+    <row r="30" spans="1:10">
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="9:10">
+    <row r="31" spans="1:10">
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="9:10">
+    <row r="32" spans="1:10">
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="9:10">

--- a/每日项目页数登记表.xlsx
+++ b/每日项目页数登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>日時</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,18 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20191126（火）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191127（水）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191128（木）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>20191129（金）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -165,6 +153,14 @@
   </si>
   <si>
     <t>20191218（水）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191219（木）</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20191220（金）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L100"/>
+  <dimension ref="A2:L97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -654,7 +650,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="17">
-        <v>1328</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -693,114 +689,124 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C5" s="13">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1">
-        <v>11</v>
-      </c>
       <c r="E5" s="11">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="8">
-        <f>SUM(D5:G5)</f>
-        <v>59</v>
-      </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+        <f>SUM(C5:G5)</f>
+        <v>8</v>
+      </c>
+      <c r="I5" s="10"/>
+      <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
-        <v>155</v>
-      </c>
-      <c r="C6" s="13">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="11">
-        <v>151</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="8">
-        <f>SUM(C6:G6)</f>
-        <v>155</v>
-      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="8">
-        <f>SUM(C7:G7)</f>
-        <v>11</v>
-      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="1"/>
+      <c r="B8" s="1">
+        <v>120</v>
+      </c>
+      <c r="C8" s="13">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="11">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="8">
         <f>SUM(C8:G8)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="1">
+        <v>18</v>
+      </c>
+      <c r="C9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="8">
+        <f>SUM(C9:G9)</f>
+        <v>18</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="8">
+        <f>SUM(C10:G10)</f>
+        <v>6</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -809,63 +815,68 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="11">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="8">
         <f>SUM(C11:G11)</f>
-        <v>108</v>
-      </c>
-      <c r="I11" s="6"/>
+        <v>84</v>
+      </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1">
+        <v>9</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="11">
+        <v>9</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8">
+        <f>SUM(C12:G12)</f>
+        <v>9</v>
+      </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12">
@@ -882,30 +893,31 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
@@ -919,7 +931,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="14" t="s">
@@ -933,33 +945,31 @@
       <c r="G19" s="1"/>
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
@@ -976,29 +986,38 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="B24" s="1">
+        <v>973</v>
+      </c>
+      <c r="C24" s="13">
+        <v>973</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="8">
+        <f>SUM(C24:G24)</f>
+        <v>973</v>
+      </c>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
@@ -1006,46 +1025,28 @@
         <v>28</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="8"/>
       <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="1">
-        <v>973</v>
-      </c>
-      <c r="C27" s="13">
-        <v>973</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="8">
-        <f>SUM(C27:G27)</f>
-        <v>973</v>
-      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
     </row>
@@ -1060,14 +1061,14 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
+      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="9:10">
       <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="9:10">
       <c r="I34" s="6"/>
@@ -1084,14 +1085,14 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="9:10">
+      <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="9:10">
-      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="9:10">
       <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="9:10">
       <c r="I41" s="6"/>
@@ -1108,14 +1109,14 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="9:10">
+      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="9:10">
-      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
     </row>
     <row r="47" spans="9:10">
       <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="9:10">
       <c r="I48" s="6"/>
@@ -1132,129 +1133,119 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="9:10">
+      <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
     <row r="53" spans="9:10">
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" spans="9:10">
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
+      <c r="J53" s="6"/>
     </row>
     <row r="55" spans="9:10">
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
+      <c r="I55" s="10"/>
     </row>
     <row r="56" spans="9:10">
-      <c r="J56" s="6"/>
-    </row>
-    <row r="58" spans="9:10">
-      <c r="I58" s="10"/>
-    </row>
-    <row r="59" spans="9:10">
-      <c r="I59" s="6"/>
-      <c r="J59" s="10"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="9:10">
+      <c r="J57" s="6"/>
     </row>
     <row r="60" spans="9:10">
-      <c r="J60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="9:10">
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="9:10">
+      <c r="I62" s="10"/>
     </row>
     <row r="63" spans="9:10">
       <c r="I63" s="6"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="9:10">
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="9:10">
-      <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="9:10">
-      <c r="I66" s="6"/>
-      <c r="J66" s="10"/>
-    </row>
     <row r="67" spans="9:10">
-      <c r="J67" s="6"/>
+      <c r="I67" s="6"/>
+    </row>
+    <row r="68" spans="9:10">
+      <c r="J68" s="6"/>
+    </row>
+    <row r="69" spans="9:10">
+      <c r="I69" s="10"/>
     </row>
     <row r="70" spans="9:10">
       <c r="I70" s="6"/>
+      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="9:10">
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="9:10">
-      <c r="I72" s="10"/>
-    </row>
-    <row r="73" spans="9:10">
-      <c r="I73" s="6"/>
-      <c r="J73" s="10"/>
-    </row>
     <row r="74" spans="9:10">
-      <c r="J74" s="6"/>
+      <c r="I74" s="6"/>
+    </row>
+    <row r="75" spans="9:10">
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+    </row>
+    <row r="76" spans="9:10">
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
     </row>
     <row r="77" spans="9:10">
-      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" spans="9:10">
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
+      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="9:10">
       <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
+      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="9:10">
       <c r="J80" s="6"/>
     </row>
-    <row r="81" spans="9:10">
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="9:10">
-      <c r="I82" s="6"/>
-      <c r="J82" s="10"/>
-    </row>
     <row r="83" spans="9:10">
-      <c r="J83" s="6"/>
+      <c r="I83" s="6"/>
+    </row>
+    <row r="84" spans="9:10">
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+    </row>
+    <row r="85" spans="9:10">
+      <c r="I85" s="10"/>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" spans="9:10">
       <c r="I86" s="6"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" spans="9:10">
-      <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="9:10">
-      <c r="I88" s="10"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="9:10">
-      <c r="I89" s="6"/>
-      <c r="J89" s="10"/>
-    </row>
     <row r="90" spans="9:10">
-      <c r="J90" s="6"/>
+      <c r="I90" s="6"/>
+    </row>
+    <row r="91" spans="9:10">
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+    </row>
+    <row r="92" spans="9:10">
+      <c r="I92" s="10"/>
+      <c r="J92" s="6"/>
     </row>
     <row r="93" spans="9:10">
       <c r="I93" s="6"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="9:10">
-      <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="9:10">
-      <c r="I95" s="10"/>
-      <c r="J95" s="6"/>
     </row>
     <row r="96" spans="9:10">
       <c r="I96" s="6"/>
-      <c r="J96" s="10"/>
-    </row>
-    <row r="97" spans="9:10">
+    </row>
+    <row r="97" spans="10:10">
       <c r="J97" s="6"/>
-    </row>
-    <row r="99" spans="9:10">
-      <c r="I99" s="6"/>
-    </row>
-    <row r="100" spans="9:10">
-      <c r="J100" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/每日项目页数登记表.xlsx
+++ b/每日项目页数登记表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>日時</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,22 +74,6 @@
       <t>鹏组</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191129（金）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191130（土）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191201（日）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20191202（月）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>20191203（火）</t>
@@ -624,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:L97"/>
+  <dimension ref="A2:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -650,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="17">
-        <v>1218</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -689,13 +673,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C5" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E5" s="11">
         <v>1</v>
@@ -704,37 +688,56 @@
       <c r="G5" s="1"/>
       <c r="H5" s="8">
         <f>SUM(C5:G5)</f>
-        <v>8</v>
-      </c>
-      <c r="I5" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="8">
+        <f>SUM(C6:G6)</f>
+        <v>10</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="6"/>
+      <c r="B7" s="1">
+        <v>92</v>
+      </c>
+      <c r="C7" s="13">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>82</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="8">
+        <f>SUM(C7:G7)</f>
+        <v>92</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:12">
@@ -742,141 +745,120 @@
         <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="C8" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11">
         <v>9</v>
       </c>
-      <c r="E8" s="11">
-        <v>105</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="8">
         <f>SUM(C8:G8)</f>
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1">
-        <v>18</v>
-      </c>
-      <c r="C9" s="13">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>13</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="8">
-        <f>SUM(C9:G9)</f>
-        <v>18</v>
-      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1">
-        <v>6</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="11">
-        <v>6</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="8">
-        <f>SUM(C10:G10)</f>
-        <v>6</v>
-      </c>
-      <c r="I10" s="6"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
-        <v>84</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="13"/>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="11">
-        <v>81</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="8">
-        <f>SUM(C11:G11)</f>
-        <v>84</v>
-      </c>
-      <c r="J11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>6</v>
+      </c>
       <c r="E12" s="11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="8">
         <f>SUM(C12:G12)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>3</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(C13:G13)</f>
+        <v>3</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:12">
@@ -893,31 +875,29 @@
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10">
@@ -931,7 +911,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="8"/>
-      <c r="J18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="14" t="s">
@@ -945,31 +925,40 @@
       <c r="G19" s="1"/>
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="B20" s="1">
+        <v>973</v>
+      </c>
+      <c r="C20" s="13">
+        <v>973</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="8">
+        <f>SUM(C20:G20)</f>
+        <v>973</v>
+      </c>
+      <c r="I20" s="6"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10">
@@ -977,7 +966,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -986,65 +975,18 @@
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="8"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="1">
-        <v>973</v>
-      </c>
-      <c r="C24" s="13">
-        <v>973</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="8">
-        <f>SUM(C24:G24)</f>
-        <v>973</v>
-      </c>
-      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="8"/>
-      <c r="J25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="8"/>
       <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10">
       <c r="I27" s="6"/>
@@ -1061,14 +1003,14 @@
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="I31" s="6"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="J32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="9:10">
       <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="9:10">
       <c r="I34" s="6"/>
@@ -1085,14 +1027,14 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="9:10">
-      <c r="I38" s="6"/>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="9:10">
-      <c r="J39" s="6"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="9:10">
       <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="9:10">
       <c r="I41" s="6"/>
@@ -1109,14 +1051,14 @@
       <c r="J44" s="6"/>
     </row>
     <row r="45" spans="9:10">
-      <c r="I45" s="6"/>
       <c r="J45" s="6"/>
     </row>
     <row r="46" spans="9:10">
-      <c r="J46" s="6"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="9:10">
       <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
     </row>
     <row r="48" spans="9:10">
       <c r="I48" s="6"/>
@@ -1125,127 +1067,113 @@
     <row r="49" spans="9:10">
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="9:10">
-      <c r="I50" s="6"/>
-    </row>
     <row r="51" spans="9:10">
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
+      <c r="I51" s="10"/>
     </row>
     <row r="52" spans="9:10">
       <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="9:10">
       <c r="J53" s="6"/>
     </row>
-    <row r="55" spans="9:10">
-      <c r="I55" s="10"/>
-    </row>
     <row r="56" spans="9:10">
       <c r="I56" s="6"/>
-      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="9:10">
       <c r="J57" s="6"/>
     </row>
+    <row r="58" spans="9:10">
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="9:10">
+      <c r="I59" s="6"/>
+      <c r="J59" s="10"/>
+    </row>
     <row r="60" spans="9:10">
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" spans="9:10">
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="9:10">
-      <c r="I62" s="10"/>
+      <c r="J60" s="6"/>
     </row>
     <row r="63" spans="9:10">
       <c r="I63" s="6"/>
-      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="9:10">
       <c r="J64" s="6"/>
     </row>
+    <row r="65" spans="9:10">
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="9:10">
+      <c r="I66" s="6"/>
+      <c r="J66" s="10"/>
+    </row>
     <row r="67" spans="9:10">
-      <c r="I67" s="6"/>
-    </row>
-    <row r="68" spans="9:10">
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="9:10">
-      <c r="I69" s="10"/>
+      <c r="J67" s="6"/>
     </row>
     <row r="70" spans="9:10">
       <c r="I70" s="6"/>
-      <c r="J70" s="10"/>
     </row>
     <row r="71" spans="9:10">
+      <c r="I71" s="6"/>
       <c r="J71" s="6"/>
     </row>
+    <row r="72" spans="9:10">
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+    </row>
+    <row r="73" spans="9:10">
+      <c r="J73" s="6"/>
+    </row>
     <row r="74" spans="9:10">
-      <c r="I74" s="6"/>
+      <c r="I74" s="10"/>
     </row>
     <row r="75" spans="9:10">
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
+      <c r="J75" s="10"/>
     </row>
     <row r="76" spans="9:10">
-      <c r="I76" s="6"/>
       <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="9:10">
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="9:10">
-      <c r="I78" s="10"/>
     </row>
     <row r="79" spans="9:10">
       <c r="I79" s="6"/>
-      <c r="J79" s="10"/>
     </row>
     <row r="80" spans="9:10">
+      <c r="I80" s="6"/>
       <c r="J80" s="6"/>
     </row>
+    <row r="81" spans="9:10">
+      <c r="I81" s="10"/>
+      <c r="J81" s="6"/>
+    </row>
+    <row r="82" spans="9:10">
+      <c r="I82" s="6"/>
+      <c r="J82" s="10"/>
+    </row>
     <row r="83" spans="9:10">
-      <c r="I83" s="6"/>
-    </row>
-    <row r="84" spans="9:10">
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="9:10">
-      <c r="I85" s="10"/>
-      <c r="J85" s="6"/>
+      <c r="J83" s="6"/>
     </row>
     <row r="86" spans="9:10">
       <c r="I86" s="6"/>
-      <c r="J86" s="10"/>
     </row>
     <row r="87" spans="9:10">
+      <c r="I87" s="6"/>
       <c r="J87" s="6"/>
     </row>
+    <row r="88" spans="9:10">
+      <c r="I88" s="10"/>
+      <c r="J88" s="6"/>
+    </row>
+    <row r="89" spans="9:10">
+      <c r="I89" s="6"/>
+      <c r="J89" s="10"/>
+    </row>
     <row r="90" spans="9:10">
-      <c r="I90" s="6"/>
-    </row>
-    <row r="91" spans="9:10">
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
+      <c r="J90" s="6"/>
     </row>
     <row r="92" spans="9:10">
-      <c r="I92" s="10"/>
-      <c r="J92" s="6"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="9:10">
-      <c r="I93" s="6"/>
-      <c r="J93" s="10"/>
-    </row>
-    <row r="94" spans="9:10">
-      <c r="J94" s="6"/>
-    </row>
-    <row r="96" spans="9:10">
-      <c r="I96" s="6"/>
-    </row>
-    <row r="97" spans="10:10">
-      <c r="J97" s="6"/>
+      <c r="J93" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
